--- a/data/hotels_by_city/Houston/Houston_shard_520.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_520.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="381">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d8494644-Reviews-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Quality-Inn-Suites-Westchase-Westheimer.h11672920.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1017 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r574241648-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>8494644</t>
+  </si>
+  <si>
+    <t>574241648</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Electrician</t>
+  </si>
+  <si>
+    <t>I beleieve that this place is the best in customer service, cleanliness and hospitality. I would like to mention how knowledgable Cynthia the front desk clerk is of her job if in that area check them out!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r573056080-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573056080</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>Nicely appointed rooms.  Great bed.  Decent wifi.  OK breakfast.</t>
+  </si>
+  <si>
+    <t>4th floor was nice and quiet -- even right next to the elevator was no problem.  Wifi was fast.  Staff tried their best to respond to needs and concerns.  Nice bathroom fixtures.  Decent parking.  Perfect location for where I needed to be.  All in all, nice place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r567908663-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567908663</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Best value hotel on Westheimer</t>
+  </si>
+  <si>
+    <t>The hotel has a fantastic location and great value. The room was clean and beds comfortable to sleep in. The room was ready at check in as promised and there were no issues during my stay.. The breakfast bar in the morning was good and the breakfast area was clean . Definitely will stay here when i am in town next.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r518783157-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>518783157</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Bad customer service</t>
+  </si>
+  <si>
+    <t>We did a walk in booking. The counter staff failed to inform us of the various taxes that would be charged; resulting in a much higher charge than we anticipated IMHO The customer service / frontdesk staff needs lessons in customer service</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r507210851-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507210851</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>The staff, especially Natalie at the front desk, was great! Attentive, responsive and pleasant!</t>
+  </si>
+  <si>
+    <t>The hotel looks recently renovated and is well maintained.  The rooms were nice and the lobby is welcoming. The swimming pool was the one thing that could be better - it's small and adjacent to the parking lot - some plants to create a sense of separation could add a lot to the experience.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r488467900-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488467900</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Boutique Hotel at Chain Hotel Price</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights while visiting family in the area.  Upon entering, we thought that we were in a European Boutique hotel.  The decor of common areas was inviting and clean.  Staff was friendly and welcoming.  Room was large and well appointed.  Breakfast was excellent.  This is definitely the best Quality Inn that we have encountered in our travels.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights while visiting family in the area.  Upon entering, we thought that we were in a European Boutique hotel.  The decor of common areas was inviting and clean.  Staff was friendly and welcoming.  Room was large and well appointed.  Breakfast was excellent.  This is definitely the best Quality Inn that we have encountered in our travels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r470263553-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470263553</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Hotel </t>
+  </si>
+  <si>
+    <t>The office staff was great. We had trouble with our reservation and they were very patient while I worked it out over the phone with the Choice Hotel people. The room was clean and comfortable and quiet. The shower actually had power! Best stop on our trip yet!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>The office staff was great. We had trouble with our reservation and they were very patient while I worked it out over the phone with the Choice Hotel people. The room was clean and comfortable and quiet. The shower actually had power! Best stop on our trip yet!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r468798868-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468798868</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Modern Business Hotel</t>
+  </si>
+  <si>
+    <t>Very chic and easy to visit.  Modern rooms with all the facilities.  Restaurants and shops nearby.  Not too far from highway and easy to get around.  Staff very accomodating and willing to help.  They even spoke French!MoreShow less</t>
+  </si>
+  <si>
+    <t>Very chic and easy to visit.  Modern rooms with all the facilities.  Restaurants and shops nearby.  Not too far from highway and easy to get around.  Staff very accomodating and willing to help.  They even spoke French!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r468075885-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468075885</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New and beautiful </t>
+  </si>
+  <si>
+    <t>Stayed one night recently on a road trip with my family and happy to have found this place. We take a lot of road trips and stay in a lot of Choice Hotels, so we know all the brands well. This is the nicest Quality Inn and Suites by far that we have ever visited! It is new, modern, and clean. Large and spacious breakfast area with an above average spread. Nice fitness room and pool too.  Beds very comfy. The chime on the elevator is a bit loud, so try for a room away from the elevator to keep it quiet. We heard no noise room to room or floor to floor. Will definitely stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed one night recently on a road trip with my family and happy to have found this place. We take a lot of road trips and stay in a lot of Choice Hotels, so we know all the brands well. This is the nicest Quality Inn and Suites by far that we have ever visited! It is new, modern, and clean. Large and spacious breakfast area with an above average spread. Nice fitness room and pool too.  Beds very comfy. The chime on the elevator is a bit loud, so try for a room away from the elevator to keep it quiet. We heard no noise room to room or floor to floor. Will definitely stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r467275918-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467275918</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Fairly new hotel but not very clean</t>
+  </si>
+  <si>
+    <t>Pros:1. It’s a fairly new hotel.2. The room was very spacious and with modern décor. 3. The sheets were clean. 4. The receptionist, Natalie, was very friendly and professional. There was a problem with our shower and she immediately sent the technician to fix it. 5. USB ports on both sides of the bed and one built-in the desk.6. Wi-Fi worked fine.7. The AC worked fine. 8. Good basic breakfast – scrambled eggs, sausage patties, bagels, bread, waffles, serial, yogurt and some fruit.9. Free parking. Cons:1. The duvet had nasty stains in several places. 2. Some of the towels were stained with yellow stains. 3. No ventilation in the bathroom and only one hook for towels. 4. Bad noise insulation between rooms. We could hear people walking in the upper floor, people talking in the corridor and doors closing.5. The area looks a bit sketchy – people begging at the traffic lights, people speeding and running red lights on purpose and a lot of police cruisers patrolling the area. There was even a police car permanently parked behind the hotel and one behind the hotel right next to ours. 6. No extra blankets for those who prefer to sleep with lighter bedding (only duvets).  7. Lack of an in-room safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pros:1. It’s a fairly new hotel.2. The room was very spacious and with modern décor. 3. The sheets were clean. 4. The receptionist, Natalie, was very friendly and professional. There was a problem with our shower and she immediately sent the technician to fix it. 5. USB ports on both sides of the bed and one built-in the desk.6. Wi-Fi worked fine.7. The AC worked fine. 8. Good basic breakfast – scrambled eggs, sausage patties, bagels, bread, waffles, serial, yogurt and some fruit.9. Free parking. Cons:1. The duvet had nasty stains in several places. 2. Some of the towels were stained with yellow stains. 3. No ventilation in the bathroom and only one hook for towels. 4. Bad noise insulation between rooms. We could hear people walking in the upper floor, people talking in the corridor and doors closing.5. The area looks a bit sketchy – people begging at the traffic lights, people speeding and running red lights on purpose and a lot of police cruisers patrolling the area. There was even a police car permanently parked behind the hotel and one behind the hotel right next to ours. 6. No extra blankets for those who prefer to sleep with lighter bedding (only duvets).  7. Lack of an in-room safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r466742144-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466742144</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>From my check in experience i breath the air of home.The first reception Nathaniel is a great plus and she sure knows her job.Every single day was full of warmth and great care from staff.Unlike some other hotels you park your car and are not sure of it's safety,the car parks were always Police guarded.I left briefly to another State and decided to stay in same hotel but the difference was clear.2451 Hayes road stands out and i look forward to make it my base any time i visit Houston.I am impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>From my check in experience i breath the air of home.The first reception Nathaniel is a great plus and she sure knows her job.Every single day was full of warmth and great care from staff.Unlike some other hotels you park your car and are not sure of it's safety,the car parks were always Police guarded.I left briefly to another State and decided to stay in same hotel but the difference was clear.2451 Hayes road stands out and i look forward to make it my base any time i visit Houston.I am impressed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r466659749-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466659749</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Best hotel I've stayed in</t>
+  </si>
+  <si>
+    <t>Everything here was amazing. The staff deserve a raise. I stay in hotels every day for my career. By far the nicest for the price. I recommend they get a hot tub installed as they are advertising it. But they get 5 stars do the customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything here was amazing. The staff deserve a raise. I stay in hotels every day for my career. By far the nicest for the price. I recommend they get a hot tub installed as they are advertising it. But they get 5 stars do the customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r458136574-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458136574</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Hotel Experience</t>
+  </si>
+  <si>
+    <t>I was very please with the appearance of the hotel and when I checked in my room.....WOOOOOW Very nice!!! The front Desk was so professional even though she didn't offer me some  fresh cookies but I did get a bottle of water lol lol . I just love the floor plan and the room decorations. Just hope it stay this way in 4 years when my Falcons properly play Houston Texans. I did have a good view of the parking lot so my car would be seen.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded February 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2017</t>
+  </si>
+  <si>
+    <t>I was very please with the appearance of the hotel and when I checked in my room.....WOOOOOW Very nice!!! The front Desk was so professional even though she didn't offer me some  fresh cookies but I did get a bottle of water lol lol . I just love the floor plan and the room decorations. Just hope it stay this way in 4 years when my Falcons properly play Houston Texans. I did have a good view of the parking lot so my car would be seen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r456757493-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456757493</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>The frountdesk assistant Marquence did help us</t>
+  </si>
+  <si>
+    <t>We checked in late the afternoon and the business was busy that time, so we cannot get a two beds room. Marquence helped us get a room with one king bed and one sofa bed. It's really save me the tired day after driving.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>We checked in late the afternoon and the business was busy that time, so we cannot get a two beds room. Marquence helped us get a room with one king bed and one sofa bed. It's really save me the tired day after driving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r456301757-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456301757</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>Friendly and accommodating front desk staff</t>
+  </si>
+  <si>
+    <t>Nice folks. Good breakfast.  Clean.  We didn't leave anything in the car because it is Houston.  Modern look, only standing shower with free Wifi.  Sonic across the parking lot. 5 minutes from Edith Moore Audubon Bird Sanctuary.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded February 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2017</t>
+  </si>
+  <si>
+    <t>Nice folks. Good breakfast.  Clean.  We didn't leave anything in the car because it is Houston.  Modern look, only standing shower with free Wifi.  Sonic across the parking lot. 5 minutes from Edith Moore Audubon Bird Sanctuary.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r446638061-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446638061</t>
+  </si>
+  <si>
+    <t>12/25/2016</t>
+  </si>
+  <si>
+    <t>Super hotel</t>
+  </si>
+  <si>
+    <t>I travel a lot and I must say your hotel was one of the best destination hotel to come too. First the look of your hotel just WOW me. Then your team from the front of the house to the back of the house you guys ROCK... and I want to give a special thanks to the young African-American lady that works the front desk. My hat goes off to her and her professionalism. Trust me I will be back again and again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2017</t>
+  </si>
+  <si>
+    <t>I travel a lot and I must say your hotel was one of the best destination hotel to come too. First the look of your hotel just WOW me. Then your team from the front of the house to the back of the house you guys ROCK... and I want to give a special thanks to the young African-American lady that works the front desk. My hat goes off to her and her professionalism. Trust me I will be back again and again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r446077893-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446077893</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>For one Night obly</t>
+  </si>
+  <si>
+    <t>I was very satifoed with the staff and the room. My one complaint was that the ice machine was on the first floor. Other than that everything else about the hotel was amazing. I would very much stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I was very satifoed with the staff and the room. My one complaint was that the ice machine was on the first floor. Other than that everything else about the hotel was amazing. I would very much stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r443260303-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443260303</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Kudos to you MARQUENCE!!</t>
+  </si>
+  <si>
+    <t>Rooms were nice and Marquence made our stay here extra special. He was very friendly and informative. Whatever we asked for, Marquence made it a top priority to provide it. Wether it was extra towels or directions to the nearest Walmart,he was there to help. MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms were nice and Marquence made our stay here extra special. He was very friendly and informative. Whatever we asked for, Marquence made it a top priority to provide it. Wether it was extra towels or directions to the nearest Walmart,he was there to help. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r441441472-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441441472</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>i love this hotel very clean and tidy , one of the best  choice  hotels. Ive visted . Its a new location recently built this year , alot of ammunties around ! In a nice upper middle class environment! Alot of food and bar spots within walking distance !  MoreShow less</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded December 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2016</t>
+  </si>
+  <si>
+    <t>i love this hotel very clean and tidy , one of the best  choice  hotels. Ive visted . Its a new location recently built this year , alot of ammunties around ! In a nice upper middle class environment! Alot of food and bar spots within walking distance !  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r436969847-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436969847</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>I stayed one night. The hotel building itself seemed very new including the lobby, the break fast room, elevator etc. Very clean and tidy. The staffs were polite. The room was nicely cleaned and I was very comfortable. The bed was nice to sleep and it was very good there was no noise that prevented my sleep. The accessibility to downtown was good. When I go to Houston, I would like to use the hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2016</t>
+  </si>
+  <si>
+    <t>I stayed one night. The hotel building itself seemed very new including the lobby, the break fast room, elevator etc. Very clean and tidy. The staffs were polite. The room was nicely cleaned and I was very comfortable. The bed was nice to sleep and it was very good there was no noise that prevented my sleep. The accessibility to downtown was good. When I go to Houston, I would like to use the hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r433818298-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433818298</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalie is the best! </t>
+  </si>
+  <si>
+    <t>Outstanding service! We are having a wedding in November and advised our guests to book reservations at this property (when it was Country Inn).  Then, it switched to Quality Inn and created quite a commotion. I called the property to reserve the room block and it was EFFORTLESS! Natalie was able to address all my concerns, book the room block in seconds, and informed me of the guests that have already reserved. She was extremely flexible with room type and dates and made this experience so easy. That makes a huge difference! I tried to block rooms at another property and they were less than accommodating, so to speak with Natalie and get everything taken care of in a matter of minutes was a huge relief. I called back to make a change and she answered the phone, "Hi Miss [last name]". Such amazing service and my guests haven't even arrived. I truly appreciate her assistance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded November 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2016</t>
+  </si>
+  <si>
+    <t>Outstanding service! We are having a wedding in November and advised our guests to book reservations at this property (when it was Country Inn).  Then, it switched to Quality Inn and created quite a commotion. I called the property to reserve the room block and it was EFFORTLESS! Natalie was able to address all my concerns, book the room block in seconds, and informed me of the guests that have already reserved. She was extremely flexible with room type and dates and made this experience so easy. That makes a huge difference! I tried to block rooms at another property and they were less than accommodating, so to speak with Natalie and get everything taken care of in a matter of minutes was a huge relief. I called back to make a change and she answered the phone, "Hi Miss [last name]". Such amazing service and my guests haven't even arrived. I truly appreciate her assistance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r416973580-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416973580</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r415515117-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415515117</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We stayed the weekend of Sept 3rd and had a great experience. The staff was friendly and the rooms were clean. This hotel was in a central location for our visit. Our family, restaurants, and shopping were very close by. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed the weekend of Sept 3rd and had a great experience. The staff was friendly and the rooms were clean. This hotel was in a central location for our visit. Our family, restaurants, and shopping were very close by. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r415329332-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415329332</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r404388160-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>404388160</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r399626188-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399626188</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Very clean and pleasant stay</t>
+  </si>
+  <si>
+    <t>Very clean and proper facilities with a very friendly and welcoming staff. Decent breakfast. Decent value for money too. Supermarket close and many places to eat as well. Further it is quiet, good if you want to have a relaxed stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded August 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2016</t>
+  </si>
+  <si>
+    <t>Very clean and proper facilities with a very friendly and welcoming staff. Decent breakfast. Decent value for money too. Supermarket close and many places to eat as well. Further it is quiet, good if you want to have a relaxed stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r396476050-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396476050</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>CarlsonRezidor, Online Customer Support at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r389423589-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389423589</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Very calm and pleasant stay!</t>
+  </si>
+  <si>
+    <t>I booked this hotel for the 4th of July weekend and I must say it was quite pleasant. The staff was wonderful, the room was clean, and I liked the fact that there were so many stores and restaurants near by. If I could've changed anything, I would maybe choose a room farther from our next door neighbors. It seems the walls are kind of thin and I could hear their kids screaming, but other than that, a very pleasant stay! Breakfast was good and check in &amp; out was speedy. Overall very nice hotel and excellent staff- recommend this to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel for the 4th of July weekend and I must say it was quite pleasant. The staff was wonderful, the room was clean, and I liked the fact that there were so many stores and restaurants near by. If I could've changed anything, I would maybe choose a room farther from our next door neighbors. It seems the walls are kind of thin and I could hear their kids screaming, but other than that, a very pleasant stay! Breakfast was good and check in &amp; out was speedy. Overall very nice hotel and excellent staff- recommend this to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r389269316-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389269316</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r388610038-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388610038</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Unexpected Jewel</t>
+  </si>
+  <si>
+    <t>Hotel was very clean and modern. the staff were extremely helpful and super friendly. Bed was comfortable and pillows were nice. Great Surprise. I was skeptical at first because the price was so inexpensive. But what a treat and great value. Wish all my hotels on this trip would have been like this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Hotel was very clean and modern. the staff were extremely helpful and super friendly. Bed was comfortable and pillows were nice. Great Surprise. I was skeptical at first because the price was so inexpensive. But what a treat and great value. Wish all my hotels on this trip would have been like this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r386304787-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386304787</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r384969908-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384969908</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>I stayed at country inn suites for four days and I love it and very very satisfied with my stay and will be coming back for five more weeks for sure ...the exercise room and pool were awesome ..I surely enjoyed the stayMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at country inn suites for four days and I love it and very very satisfied with my stay and will be coming back for five more weeks for sure ...the exercise room and pool were awesome ..I surely enjoyed the stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r384495111-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384495111</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r381027583-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381027583</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>VERY CLEAN HOTEL</t>
+  </si>
+  <si>
+    <t>The hotel was spotless!  Room was fresh and new. TV remote needed batteries but I'll give up the TV for a room this clean any day.  Staff was nice and courteous.  Breakfast area was clean as well and the food was very fresh.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was spotless!  Room was fresh and new. TV remote needed batteries but I'll give up the TV for a room this clean any day.  Staff was nice and courteous.  Breakfast area was clean as well and the food was very fresh.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r378214804-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378214804</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Perfect for us</t>
+  </si>
+  <si>
+    <t>Perfect location for our vacation to visit family. New hotel.Friendly staff.Was on 4th floor so nooce was not a problem. Fairly clean -could use to clean cobwebs from ceilings in halls. Including 3 pictures with this post of what we noticed. 1- from parking lot there is a window on 3rd that if installed properly shouldn't have moisture in it. 2- above elevator it looks unfinished/cheaply done. 3- no person should look down the crack in elevator as you can see down and it was dirty down there, even seen a pack of Marb light cigarettes. Despite these things minor (in our opinion) things, we will return to this hotel due to close proximity to shopping, food and family. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded June 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2016</t>
+  </si>
+  <si>
+    <t>Perfect location for our vacation to visit family. New hotel.Friendly staff.Was on 4th floor so nooce was not a problem. Fairly clean -could use to clean cobwebs from ceilings in halls. Including 3 pictures with this post of what we noticed. 1- from parking lot there is a window on 3rd that if installed properly shouldn't have moisture in it. 2- above elevator it looks unfinished/cheaply done. 3- no person should look down the crack in elevator as you can see down and it was dirty down there, even seen a pack of Marb light cigarettes. Despite these things minor (in our opinion) things, we will return to this hotel due to close proximity to shopping, food and family. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r373553182-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373553182</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Great room, great lication</t>
+  </si>
+  <si>
+    <t>We stayed here the first week of May and the hotel was in pristine condition. Every room was perfectly clean. The staff was very nice and helpful. Our room was great and the bed was heaven!! A nice yummy breakfast the next morning was the perfect ending to our stay. We will definitely visit again if we are back in town.-MoreShow less</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here the first week of May and the hotel was in pristine condition. Every room was perfectly clean. The staff was very nice and helpful. Our room was great and the bed was heaven!! A nice yummy breakfast the next morning was the perfect ending to our stay. We will definitely visit again if we are back in town.-More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r371072053-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371072053</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r367670497-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367670497</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r363237786-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363237786</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded April 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r356081647-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356081647</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Very Clean</t>
+  </si>
+  <si>
+    <t>I was amazed by this property.  The entire staff was friendly and willing to help.  I was allowed to change from my double queen room to a single king at the last minute.  Viven at the front desk was amazing and had no problem in assisting.  The room itself was in immaculate condition and could not ask for anything more.  I will stay here every time I am in Houston again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2016</t>
+  </si>
+  <si>
+    <t>I was amazed by this property.  The entire staff was friendly and willing to help.  I was allowed to change from my double queen room to a single king at the last minute.  Viven at the front desk was amazing and had no problem in assisting.  The room itself was in immaculate condition and could not ask for anything more.  I will stay here every time I am in Houston again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r355657315-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355657315</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>good stay for the buck</t>
+  </si>
+  <si>
+    <t>Modern, clean. Not in the best part of town but a good deal for the buck.The service was good, all employees were extremely nice and worried of providing a good service at all  times. Other services : wifi, cable, breakfast all great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Modern, clean. Not in the best part of town but a good deal for the buck.The service was good, all employees were extremely nice and worried of providing a good service at all  times. Other services : wifi, cable, breakfast all great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r355267601-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355267601</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel.</t>
+  </si>
+  <si>
+    <t>The overall hotel is very nice - it still has "the new car smell" to it.  Upon arrival, we received a very warm and sincere welcome from Ms. Vivien at the front desk.  Check in was smooth and trouble free.  Our room was very nice.  Loved the overall setup and look of it.  Our bed was extremely comfortable - made you not want to get out of it in the morning!  Waking up to free breakfast was nice.  Good coffee - very important to me.  The close proximity to Sam Houston Pkwy was convenient to what we needed, so 5 stars for that.  Plenty of good food nearby.  I didn't give a full 5 only because of the area.  There was a nightclub across the street and plenty of questionable characters wandering the neighborhood to let me know I couldn't walk anywhere.  I was very glad the property was well lit, so I wasn't as worried about my vehicle as I would have been.  No problems however.  Excellent facility - excellent staff with superior customer service.  Just needs to be in a better area.MoreShow less</t>
+  </si>
+  <si>
+    <t>The overall hotel is very nice - it still has "the new car smell" to it.  Upon arrival, we received a very warm and sincere welcome from Ms. Vivien at the front desk.  Check in was smooth and trouble free.  Our room was very nice.  Loved the overall setup and look of it.  Our bed was extremely comfortable - made you not want to get out of it in the morning!  Waking up to free breakfast was nice.  Good coffee - very important to me.  The close proximity to Sam Houston Pkwy was convenient to what we needed, so 5 stars for that.  Plenty of good food nearby.  I didn't give a full 5 only because of the area.  There was a nightclub across the street and plenty of questionable characters wandering the neighborhood to let me know I couldn't walk anywhere.  I was very glad the property was well lit, so I wasn't as worried about my vehicle as I would have been.  No problems however.  Excellent facility - excellent staff with superior customer service.  Just needs to be in a better area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r354000947-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354000947</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded March 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r350688428-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350688428</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Thin Walls</t>
+  </si>
+  <si>
+    <t>Before I booked the room I called and asked if there was a deposit on their rooms. In which the person over the phone said no. As I was checking in they asked for a card for the deposit. I figured that since it was a newer hotel they would charge a deposit but since I was misinformed I was blindsided. Personally, I thought the room was great but I didn't feel comfortable when I laid down. The walls were paper thin making it difficult to sleep as other consumers went down for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Before I booked the room I called and asked if there was a deposit on their rooms. In which the person over the phone said no. As I was checking in they asked for a card for the deposit. I figured that since it was a newer hotel they would charge a deposit but since I was misinformed I was blindsided. Personally, I thought the room was great but I didn't feel comfortable when I laid down. The walls were paper thin making it difficult to sleep as other consumers went down for breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r349227940-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349227940</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>Perfectly Good Hotel</t>
+  </si>
+  <si>
+    <t>The room was quiet and clean.  The staff was very helpful and friendly.  The breakfast was sufficient and tasty.  Location is very convenient to the Houston Westchase area.  Plenty of restaurants and shops nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Ashik P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded February 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2016</t>
+  </si>
+  <si>
+    <t>The room was quiet and clean.  The staff was very helpful and friendly.  The breakfast was sufficient and tasty.  Location is very convenient to the Houston Westchase area.  Plenty of restaurants and shops nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r347794154-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347794154</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r341737979-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341737979</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Nice new property in West Houston with gran opening special prices</t>
+  </si>
+  <si>
+    <t>Everything is very nice here with an excellent free breakfast.The staff was very helpful with WiFi access issues.My only notation is that the room had no clock. My dining companion opined that smart phones maybe make clocks obsolete but not for me. I carry a small one in my bag so I survived but am just wondering.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Ashik P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded January 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2016</t>
+  </si>
+  <si>
+    <t>Everything is very nice here with an excellent free breakfast.The staff was very helpful with WiFi access issues.My only notation is that the room had no clock. My dining companion opined that smart phones maybe make clocks obsolete but not for me. I carry a small one in my bag so I survived but am just wondering.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r343235435-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343235435</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Ashik P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r341060784-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341060784</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>Such a great hotel. Friendly staff as soon as you walk through the door, beautiful interior throughout the hotel, and clean, modern styled hotel rooms. Great location to stay at no matter what you may have planned to do in Houston. Great complimentary breakfast. Even had security walking around the hotel, which made us feel extra protected. Excellent experience and will be back again! MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashik P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Such a great hotel. Friendly staff as soon as you walk through the door, beautiful interior throughout the hotel, and clean, modern styled hotel rooms. Great location to stay at no matter what you may have planned to do in Houston. Great complimentary breakfast. Even had security walking around the hotel, which made us feel extra protected. Excellent experience and will be back again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r340827740-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340827740</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Amazing Customer Service</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stumbled upon this location and it has been our new regular spot to get away. They greet you everytime. The hotel is filled with new technology from the elevator to the style of showers in the rooms. Most recommended location in Houston hands down.MoreShow less</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stumbled upon this location and it has been our new regular spot to get away. They greet you everytime. The hotel is filled with new technology from the elevator to the style of showers in the rooms. Most recommended location in Houston hands down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r337555965-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337555965</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Brand new property and a great staff</t>
+  </si>
+  <si>
+    <t>Great new hotel. The staff was great. The breakfast was complimentary and delicious. I like the new modern touches and it was located within an easy distance to the major highways. Room was very clean and spacious. I'll definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashik P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded January 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2016</t>
+  </si>
+  <si>
+    <t>Great new hotel. The staff was great. The breakfast was complimentary and delicious. I like the new modern touches and it was located within an easy distance to the major highways. Room was very clean and spacious. I'll definitely be back.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1552,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1584,3418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>85</v>
+      </c>
+      <c r="X8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>85</v>
+      </c>
+      <c r="X9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>85</v>
+      </c>
+      <c r="X10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>85</v>
+      </c>
+      <c r="X11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>85</v>
+      </c>
+      <c r="X12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>93</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>85</v>
+      </c>
+      <c r="X13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>132</v>
+      </c>
+      <c r="X15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>157</v>
+      </c>
+      <c r="X17" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>157</v>
+      </c>
+      <c r="X18" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>157</v>
+      </c>
+      <c r="X19" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>140</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>186</v>
+      </c>
+      <c r="X21" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>140</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>194</v>
+      </c>
+      <c r="X22" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s">
+        <v>200</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X23" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>70</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>201</v>
+      </c>
+      <c r="X24" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O25" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>201</v>
+      </c>
+      <c r="X25" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>201</v>
+      </c>
+      <c r="X26" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s">
+        <v>220</v>
+      </c>
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>223</v>
+      </c>
+      <c r="X27" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>200</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>229</v>
+      </c>
+      <c r="X28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>223</v>
+      </c>
+      <c r="X29" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s">
+        <v>200</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>222</v>
+      </c>
+      <c r="O30" t="s">
+        <v>165</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>223</v>
+      </c>
+      <c r="X30" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>241</v>
+      </c>
+      <c r="J31" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" t="s">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>245</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>223</v>
+      </c>
+      <c r="X31" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s">
+        <v>200</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>245</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>223</v>
+      </c>
+      <c r="X32" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" t="s">
+        <v>253</v>
+      </c>
+      <c r="L33" t="s">
+        <v>254</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>245</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>223</v>
+      </c>
+      <c r="X33" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>257</v>
+      </c>
+      <c r="J34" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>200</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>245</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>223</v>
+      </c>
+      <c r="X34" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>245</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>264</v>
+      </c>
+      <c r="X35" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>268</v>
+      </c>
+      <c r="J36" t="s">
+        <v>269</v>
+      </c>
+      <c r="K36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>272</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>273</v>
+      </c>
+      <c r="X36" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" t="s">
+        <v>278</v>
+      </c>
+      <c r="K37" t="s">
+        <v>279</v>
+      </c>
+      <c r="L37" t="s">
+        <v>280</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>272</v>
+      </c>
+      <c r="O37" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>281</v>
+      </c>
+      <c r="X37" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38" t="s">
+        <v>286</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>200</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>272</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>287</v>
+      </c>
+      <c r="X38" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>289</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>290</v>
+      </c>
+      <c r="J39" t="s">
+        <v>291</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>200</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>292</v>
+      </c>
+      <c r="O39" t="s">
+        <v>131</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>293</v>
+      </c>
+      <c r="X39" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>295</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>296</v>
+      </c>
+      <c r="J40" t="s">
+        <v>297</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s">
+        <v>200</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>292</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>298</v>
+      </c>
+      <c r="X40" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>300</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>301</v>
+      </c>
+      <c r="J41" t="s">
+        <v>302</v>
+      </c>
+      <c r="K41" t="s">
+        <v>303</v>
+      </c>
+      <c r="L41" t="s">
+        <v>304</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>305</v>
+      </c>
+      <c r="O41" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>306</v>
+      </c>
+      <c r="X41" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>309</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>310</v>
+      </c>
+      <c r="J42" t="s">
+        <v>311</v>
+      </c>
+      <c r="K42" t="s">
+        <v>312</v>
+      </c>
+      <c r="L42" t="s">
+        <v>313</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>305</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>306</v>
+      </c>
+      <c r="X42" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>315</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>316</v>
+      </c>
+      <c r="J43" t="s">
+        <v>317</v>
+      </c>
+      <c r="K43" t="s">
+        <v>318</v>
+      </c>
+      <c r="L43" t="s">
+        <v>319</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>305</v>
+      </c>
+      <c r="O43" t="s">
+        <v>84</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>306</v>
+      </c>
+      <c r="X43" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>321</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>322</v>
+      </c>
+      <c r="J44" t="s">
+        <v>323</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s">
+        <v>200</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>305</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>324</v>
+      </c>
+      <c r="X44" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>326</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>327</v>
+      </c>
+      <c r="J45" t="s">
+        <v>328</v>
+      </c>
+      <c r="K45" t="s">
+        <v>329</v>
+      </c>
+      <c r="L45" t="s">
+        <v>330</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>331</v>
+      </c>
+      <c r="O45" t="s">
+        <v>131</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>324</v>
+      </c>
+      <c r="X45" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>333</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>334</v>
+      </c>
+      <c r="J46" t="s">
+        <v>335</v>
+      </c>
+      <c r="K46" t="s">
+        <v>336</v>
+      </c>
+      <c r="L46" t="s">
+        <v>337</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>338</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>339</v>
+      </c>
+      <c r="X46" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>342</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>343</v>
+      </c>
+      <c r="J47" t="s">
+        <v>344</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s">
+        <v>200</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>338</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>339</v>
+      </c>
+      <c r="X47" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>345</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>346</v>
+      </c>
+      <c r="J48" t="s">
+        <v>347</v>
+      </c>
+      <c r="K48" t="s">
+        <v>348</v>
+      </c>
+      <c r="L48" t="s">
+        <v>349</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>350</v>
+      </c>
+      <c r="O48" t="s">
+        <v>131</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>351</v>
+      </c>
+      <c r="X48" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>354</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>355</v>
+      </c>
+      <c r="J49" t="s">
+        <v>356</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s">
+        <v>200</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>350</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>357</v>
+      </c>
+      <c r="X49" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>359</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>360</v>
+      </c>
+      <c r="J50" t="s">
+        <v>361</v>
+      </c>
+      <c r="K50" t="s">
+        <v>362</v>
+      </c>
+      <c r="L50" t="s">
+        <v>363</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>350</v>
+      </c>
+      <c r="O50" t="s">
+        <v>84</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>364</v>
+      </c>
+      <c r="X50" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>367</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>368</v>
+      </c>
+      <c r="J51" t="s">
+        <v>369</v>
+      </c>
+      <c r="K51" t="s">
+        <v>370</v>
+      </c>
+      <c r="L51" t="s">
+        <v>371</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>350</v>
+      </c>
+      <c r="O51" t="s">
+        <v>84</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>364</v>
+      </c>
+      <c r="X51" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>373</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>374</v>
+      </c>
+      <c r="J52" t="s">
+        <v>375</v>
+      </c>
+      <c r="K52" t="s">
+        <v>376</v>
+      </c>
+      <c r="L52" t="s">
+        <v>377</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>331</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>378</v>
+      </c>
+      <c r="X52" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_520.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_520.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="573">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,10 +150,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r574241648-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r611970137-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>56003</t>
@@ -162,6 +162,102 @@
     <t>8494644</t>
   </si>
   <si>
+    <t>611970137</t>
+  </si>
+  <si>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>For a funeral</t>
+  </si>
+  <si>
+    <t>The stay was really nice.  Rooms are clean, staff very friendly and accommodating.  Only thing on check out no receipt and thought I received an e-mail of receipt but not one sent to e-mail.  Overall very satisfied with the stay.  Well lite parking area, and security.   loved the colors and relaxing atmosphere of the lobby area.  It was very welcoming to us on entering.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r611605133-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>611605133</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Nice Houston Overnight</t>
+  </si>
+  <si>
+    <t>Stayed overnight on the way home from a road trip. This was a nice and modern looking property. Wasn't aware it was previously a Country Inn. The rates were very good. Hot breakfast included, not just continental. The room had many convenient outlets for recharging electronics, a plus. And also a small refrigerator and microwave. The shower was modern but had a couple of issues. The half-panel glass can allow water to splash out. A steamy bathroom too. Also, the shower pan was creaky when stepping around. The location was good and easy to navigate around. The property is a very good value and will be on our list for the future.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Stayed overnight on the way home from a road trip. This was a nice and modern looking property. Wasn't aware it was previously a Country Inn. The rates were very good. Hot breakfast included, not just continental. The room had many convenient outlets for recharging electronics, a plus. And also a small refrigerator and microwave. The shower was modern but had a couple of issues. The half-panel glass can allow water to splash out. A steamy bathroom too. Also, the shower pan was creaky when stepping around. The location was good and easy to navigate around. The property is a very good value and will be on our list for the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r607338113-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>607338113</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean &amp; new </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel was very clean, nice, &amp; new. I'm super picky about hotels and was very pleased with our stay. They offered breakfast but we didn't have time to stay and eat. Would definitely stay at this location again. Great price, great service, great facility. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r599395521-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>599395521</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>A Night in Houston</t>
+  </si>
+  <si>
+    <t>You seldom go wrong with Quality Inn. This place is located about a block from Wilcrest &amp; Westheimer Rd, in the "Westchase" area, on Hayes St. It's so close to loads of food places on Westheimer and a shopping center. The lobby is nice and the area used for the breakfast is quite spacious. They served eggs, sausage, waffles, cereals and other standard breakfast food. It was good. The room was clean with a comfortable bed and a nice bathroom area with a shower. A good night in Houston.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r591644511-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591644511</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>One of the best value hotels I have stayed in. large, super clean room, desk with good lighting. Large comfy bed, and a good complimentary breakfast. Fridge in the room to keep the leftovers of large meals from the many nearby restaurants</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r574241648-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
     <t>574241648</t>
   </si>
   <si>
@@ -177,10 +273,7 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r573056080-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r573056080-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>573056080</t>
@@ -195,7 +288,7 @@
     <t>4th floor was nice and quiet -- even right next to the elevator was no problem.  Wifi was fast.  Staff tried their best to respond to needs and concerns.  Nice bathroom fixtures.  Decent parking.  Perfect location for where I needed to be.  All in all, nice place.</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r567908663-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r567908663-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>567908663</t>
@@ -213,7 +306,43 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r518783157-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r567339720-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567339720</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Wonderful hotel, great price and value</t>
+  </si>
+  <si>
+    <t>Our family with 3 young children loved our stay in Houston at this hotel. We were pleasantly suprised when walking into the lobby at how beautifully decorated it was and emaculately clean. All staff in every area were warm and welcoming. Cynthia at the front desk was especially friendly and helpful.  Our room was also super clean and comfortable and tastfully decorated. There was plenty of room for our family of five. Room service was great and efficient. Beds were amazing and our baby even slept great in the crib they brought in for us. We have no complaints about our stay here. There was a nice variety of options for breakfast and swimming and fitness areas were also very well kept. We are sad our last night here is tonight. We loved it so much we are booking another night with Quality Inn in Galveston before heading back home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family with 3 young children loved our stay in Houston at this hotel. We were pleasantly suprised when walking into the lobby at how beautifully decorated it was and emaculately clean. All staff in every area were warm and welcoming. Cynthia at the front desk was especially friendly and helpful.  Our room was also super clean and comfortable and tastfully decorated. There was plenty of room for our family of five. Room service was great and efficient. Beds were amazing and our baby even slept great in the crib they brought in for us. We have no complaints about our stay here. There was a nice variety of options for breakfast and swimming and fitness areas were also very well kept. We are sad our last night here is tonight. We loved it so much we are booking another night with Quality Inn in Galveston before heading back home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r540015574-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540015574</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Clean, comfortable &amp; a happy experience</t>
+  </si>
+  <si>
+    <t>Great staff who take care of their guests, had a great stay &amp; use this hotel on all my business trips... Great location and a well kept facility... Have stayed here over 50 nights this year &amp; not had a bad experience to date... Highly recommend..</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r518783157-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>518783157</t>
@@ -231,10 +360,7 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r507210851-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r507210851-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>507210851</t>
@@ -252,7 +378,7 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r488467900-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r488467900-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>488467900</t>
@@ -270,10 +396,7 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded June 23, 2017</t>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded June 23, 2017</t>
   </si>
   <si>
     <t>Responded June 23, 2017</t>
@@ -282,7 +405,46 @@
     <t>Stayed here for 3 nights while visiting family in the area.  Upon entering, we thought that we were in a European Boutique hotel.  The decor of common areas was inviting and clean.  Staff was friendly and welcoming.  Room was large and well appointed.  Breakfast was excellent.  This is definitely the best Quality Inn that we have encountered in our travels.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r470263553-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r485257960-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485257960</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Good choice for a hotel in US</t>
+  </si>
+  <si>
+    <t>This is one of the best middle range hotels I have been in the US so far. The rooms are clean an comfortable, the staff is polite and the breakfast is quite good in comparison of what similar hotels can offer in the US.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is one of the best middle range hotels I have been in the US so far. The rooms are clean an comfortable, the staff is polite and the breakfast is quite good in comparison of what similar hotels can offer in the US.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r478375992-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478375992</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>very nice polite friendly staff</t>
+  </si>
+  <si>
+    <t>very nice polite friendly staff awesome I will return for sure. Very chic and easy to visit. Modern rooms with all the facilities. Restaurants and shops nearby. Not too far from highway and easy to...moreMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>very nice polite friendly staff awesome I will return for sure. Very chic and easy to visit. Modern rooms with all the facilities. Restaurants and shops nearby. Not too far from highway and easy to...moreMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r470263553-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>470263553</t>
@@ -303,7 +465,7 @@
     <t>The office staff was great. We had trouble with our reservation and they were very patient while I worked it out over the phone with the Choice Hotel people. The room was clean and comfortable and quiet. The shower actually had power! Best stop on our trip yet!More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r468798868-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r468798868-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>468798868</t>
@@ -321,7 +483,7 @@
     <t>Very chic and easy to visit.  Modern rooms with all the facilities.  Restaurants and shops nearby.  Not too far from highway and easy to get around.  Staff very accomodating and willing to help.  They even spoke French!More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r468075885-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r468075885-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>468075885</t>
@@ -339,15 +501,48 @@
     <t>Stayed one night recently on a road trip with my family and happy to have found this place. We take a lot of road trips and stay in a lot of Choice Hotels, so we know all the brands well. This is the nicest Quality Inn and Suites by far that we have ever visited! It is new, modern, and clean. Large and spacious breakfast area with an above average spread. Nice fitness room and pool too.  Beds very comfy. The chime on the elevator is a bit loud, so try for a room away from the elevator to keep it quiet. We heard no noise room to room or floor to floor. Will definitely stay again. More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r467275918-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r467914408-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467914408</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Home from home</t>
+  </si>
+  <si>
+    <t>My husband and i enjoyed this hotel sooo much. Our week had to be extended an extra day i was certainly not happy about that!! The dest attendant Taylor was soooo sweet so polite and sooo respectful!! Not to mention out lovely room! It was very comfortable and extremely accommodating cant wait for our next trip!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and i enjoyed this hotel sooo much. Our week had to be extended an extra day i was certainly not happy about that!! The dest attendant Taylor was soooo sweet so polite and sooo respectful!! Not to mention out lovely room! It was very comfortable and extremely accommodating cant wait for our next trip!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r467391928-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467391928</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Excellent Accomodation</t>
+  </si>
+  <si>
+    <t>This hotel was extremely clean, lovely decor, very friendly and helpful staff, great complimentary breakfast and good location close to all facilities. Very luxurious and comfy bed. It was quiet despite being close to a main road.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was extremely clean, lovely decor, very friendly and helpful staff, great complimentary breakfast and good location close to all facilities. Very luxurious and comfy bed. It was quiet despite being close to a main road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r467275918-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>467275918</t>
   </si>
   <si>
-    <t>03/14/2017</t>
-  </si>
-  <si>
     <t>Fairly new hotel but not very clean</t>
   </si>
   <si>
@@ -357,7 +552,7 @@
     <t>Pros:1. It’s a fairly new hotel.2. The room was very spacious and with modern décor. 3. The sheets were clean. 4. The receptionist, Natalie, was very friendly and professional. There was a problem with our shower and she immediately sent the technician to fix it. 5. USB ports on both sides of the bed and one built-in the desk.6. Wi-Fi worked fine.7. The AC worked fine. 8. Good basic breakfast – scrambled eggs, sausage patties, bagels, bread, waffles, serial, yogurt and some fruit.9. Free parking. Cons:1. The duvet had nasty stains in several places. 2. Some of the towels were stained with yellow stains. 3. No ventilation in the bathroom and only one hook for towels. 4. Bad noise insulation between rooms. We could hear people walking in the upper floor, people talking in the corridor and doors closing.5. The area looks a bit sketchy – people begging at the traffic lights, people speeding and running red lights on purpose and a lot of police cruisers patrolling the area. There was even a police car permanently parked behind the hotel and one behind the hotel right next to ours. 6. No extra blankets for those who prefer to sleep with lighter bedding (only duvets).  7. Lack of an in-room safe.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r466742144-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r466742144-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>466742144</t>
@@ -375,7 +570,7 @@
     <t>From my check in experience i breath the air of home.The first reception Nathaniel is a great plus and she sure knows her job.Every single day was full of warmth and great care from staff.Unlike some other hotels you park your car and are not sure of it's safety,the car parks were always Police guarded.I left briefly to another State and decided to stay in same hotel but the difference was clear.2451 Hayes road stands out and i look forward to make it my base any time i visit Houston.I am impressed.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r466659749-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r466659749-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>466659749</t>
@@ -393,7 +588,46 @@
     <t>Everything here was amazing. The staff deserve a raise. I stay in hotels every day for my career. By far the nicest for the price. I recommend they get a hot tub installed as they are advertising it. But they get 5 stars do the customer service.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r458136574-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r464691937-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464691937</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>OMG I LOVE THIS HOTEL</t>
+  </si>
+  <si>
+    <t>I came to houston 2 years ago and i stayed at a quality Inn but it wasn't the same one that i stayed at that's on the SW area Im assuming this is a different hotel but I most definitely like this one wayyyyyyyyy Better I checked in late And there was a guy that checked me in and made sure I was well welcome and taking Care of he definitely knew what he was doing with his outstanding personality! The rooms was clean everthing was perfect for the price that it was The only thing that I was missing was a glass of wine lol! You guys should definitely check out this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I came to houston 2 years ago and i stayed at a quality Inn but it wasn't the same one that i stayed at that's on the SW area Im assuming this is a different hotel but I most definitely like this one wayyyyyyyyy Better I checked in late And there was a guy that checked me in and made sure I was well welcome and taking Care of he definitely knew what he was doing with his outstanding personality! The rooms was clean everthing was perfect for the price that it was The only thing that I was missing was a glass of wine lol! You guys should definitely check out this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r461698619-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461698619</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>This was a fairly new, very clean and well kept hotel.  The staff was very friendly adding to our favorable experience.  Also, the layout of the continental breakfast area was great and the food was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a fairly new, very clean and well kept hotel.  The staff was very friendly adding to our favorable experience.  Also, the layout of the continental breakfast area was great and the food was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r458136574-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>458136574</t>
@@ -408,13 +642,10 @@
     <t>I was very please with the appearance of the hotel and when I checked in my room.....WOOOOOW Very nice!!! The front Desk was so professional even though she didn't offer me some  fresh cookies but I did get a bottle of water lol lol . I just love the floor plan and the room decorations. Just hope it stay this way in 4 years when my Falcons properly play Houston Texans. I did have a good view of the parking lot so my car would be seen.MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded February 11, 2017</t>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded February 11, 2017</t>
   </si>
   <si>
     <t>Responded February 11, 2017</t>
@@ -423,7 +654,7 @@
     <t>I was very please with the appearance of the hotel and when I checked in my room.....WOOOOOW Very nice!!! The front Desk was so professional even though she didn't offer me some  fresh cookies but I did get a bottle of water lol lol . I just love the floor plan and the room decorations. Just hope it stay this way in 4 years when my Falcons properly play Houston Texans. I did have a good view of the parking lot so my car would be seen.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r456757493-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r456757493-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>456757493</t>
@@ -444,7 +675,7 @@
     <t>We checked in late the afternoon and the business was busy that time, so we cannot get a two beds room. Marquence helped us get a room with one king bed and one sofa bed. It's really save me the tired day after driving.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r456301757-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r456301757-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>456301757</t>
@@ -462,7 +693,7 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded February 1, 2017</t>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded February 1, 2017</t>
   </si>
   <si>
     <t>Responded February 1, 2017</t>
@@ -471,7 +702,52 @@
     <t>Nice folks. Good breakfast.  Clean.  We didn't leave anything in the car because it is Houston.  Modern look, only standing shower with free Wifi.  Sonic across the parking lot. 5 minutes from Edith Moore Audubon Bird Sanctuary.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r446638061-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r451871977-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451871977</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Clean, but desperately needs better management</t>
+  </si>
+  <si>
+    <t>This hotel is clean and safe. Parking is a bit limited. Nothing exciting about the location, the hotel or the breakfast, but lots of irritations that could be fixed with better management.- Lots of signs about ice machines on each floor ... after 10 minutes wandering around following signs, I called reception and discovered that there is only one ice machine ... its on the ground floor. Take down the signs or add machines on each floor please.- WiFi password changes on Friday ... but no-one at the hotel knows the new password, so just plan to have no wifi access on Friday morning- When I got into bed I was surprised to find cleaning materials (wet cloths etc.) in my bed. How ? Why ?MoreShow less</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is clean and safe. Parking is a bit limited. Nothing exciting about the location, the hotel or the breakfast, but lots of irritations that could be fixed with better management.- Lots of signs about ice machines on each floor ... after 10 minutes wandering around following signs, I called reception and discovered that there is only one ice machine ... its on the ground floor. Take down the signs or add machines on each floor please.- WiFi password changes on Friday ... but no-one at the hotel knows the new password, so just plan to have no wifi access on Friday morning- When I got into bed I was surprised to find cleaning materials (wet cloths etc.) in my bed. How ? Why ?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r447925745-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447925745</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>Clean rooms friendly staff, nice breakfast</t>
+  </si>
+  <si>
+    <t>We booked one night here, our first night in Houston and we liked it so much that we stayed the other two nights we were there, the breakfast is great for a free breakfast, rooms are clean and the staff was very friendly and helpful. Couldn't have asked for more. We will stay there again next trip!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>We booked one night here, our first night in Houston and we liked it so much that we stayed the other two nights we were there, the breakfast is great for a free breakfast, rooms are clean and the staff was very friendly and helpful. Couldn't have asked for more. We will stay there again next trip!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r446638061-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>446638061</t>
@@ -489,16 +765,10 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded January 24, 2017</t>
-  </si>
-  <si>
-    <t>Responded January 24, 2017</t>
-  </si>
-  <si>
     <t>I travel a lot and I must say your hotel was one of the best destination hotel to come too. First the look of your hotel just WOW me. Then your team from the front of the house to the back of the house you guys ROCK... and I want to give a special thanks to the young African-American lady that works the front desk. My hat goes off to her and her professionalism. Trust me I will be back again and again.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r446077893-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r446077893-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>446077893</t>
@@ -519,7 +789,7 @@
     <t>I was very satifoed with the staff and the room. My one complaint was that the ice machine was on the first floor. Other than that everything else about the hotel was amazing. I would very much stay here again. More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r443260303-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r443260303-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>443260303</t>
@@ -537,7 +807,43 @@
     <t>Rooms were nice and Marquence made our stay here extra special. He was very friendly and informative. Whatever we asked for, Marquence made it a top priority to provide it. Wether it was extra towels or directions to the nearest Walmart,he was there to help. More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r441441472-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r443038624-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443038624</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>OVERNIGHT FRONT DESK MARQUENCE</t>
+  </si>
+  <si>
+    <t>I love my experience here I am partially blind and could barely see marquence took his time to help a old lil lady like me he spoke well and was very nice keep up the good work most people his age wouldn't do that but he did I will be back and I'm going to tell everybody in town to come to this hotel...MoreShow less</t>
+  </si>
+  <si>
+    <t>I love my experience here I am partially blind and could barely see marquence took his time to help a old lil lady like me he spoke well and was very nice keep up the good work most people his age wouldn't do that but he did I will be back and I'm going to tell everybody in town to come to this hotel...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r442898595-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442898595</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>Tiffany Raby</t>
+  </si>
+  <si>
+    <t>All around outstanding. Very clean and everyone(staff) is pleasant and attentive. Not to mention great price for the area.The breakfast is amazing and Quality is really wat it is. I'll most definitely stay.again soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>All around outstanding. Very clean and everyone(staff) is pleasant and attentive. Not to mention great price for the area.The breakfast is amazing and Quality is really wat it is. I'll most definitely stay.again soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r441441472-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>441441472</t>
@@ -552,7 +858,7 @@
     <t>i love this hotel very clean and tidy , one of the best  choice  hotels. Ive visted . Its a new location recently built this year , alot of ammunties around ! In a nice upper middle class environment! Alot of food and bar spots within walking distance !  MoreShow less</t>
   </si>
   <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded December 6, 2016</t>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded December 6, 2016</t>
   </si>
   <si>
     <t>Responded December 6, 2016</t>
@@ -561,7 +867,7 @@
     <t>i love this hotel very clean and tidy , one of the best  choice  hotels. Ive visted . Its a new location recently built this year , alot of ammunties around ! In a nice upper middle class environment! Alot of food and bar spots within walking distance !  More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r436969847-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r436969847-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>436969847</t>
@@ -576,7 +882,7 @@
     <t>I stayed one night. The hotel building itself seemed very new including the lobby, the break fast room, elevator etc. Very clean and tidy. The staffs were polite. The room was nicely cleaned and I was very comfortable. The bed was nice to sleep and it was very good there was no noise that prevented my sleep. The accessibility to downtown was good. When I go to Houston, I would like to use the hotel again.MoreShow less</t>
   </si>
   <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded November 18, 2016</t>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded November 18, 2016</t>
   </si>
   <si>
     <t>Responded November 18, 2016</t>
@@ -585,7 +891,7 @@
     <t>I stayed one night. The hotel building itself seemed very new including the lobby, the break fast room, elevator etc. Very clean and tidy. The staffs were polite. The room was nicely cleaned and I was very comfortable. The bed was nice to sleep and it was very good there was no noise that prevented my sleep. The accessibility to downtown was good. When I go to Houston, I would like to use the hotel again.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r433818298-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r433818298-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>433818298</t>
@@ -600,7 +906,7 @@
     <t>Outstanding service! We are having a wedding in November and advised our guests to book reservations at this property (when it was Country Inn).  Then, it switched to Quality Inn and created quite a commotion. I called the property to reserve the room block and it was EFFORTLESS! Natalie was able to address all my concerns, book the room block in seconds, and informed me of the guests that have already reserved. She was extremely flexible with room type and dates and made this experience so easy. That makes a huge difference! I tried to block rooms at another property and they were less than accommodating, so to speak with Natalie and get everything taken care of in a matter of minutes was a huge relief. I called back to make a change and she answered the phone, "Hi Miss [last name]". Such amazing service and my guests haven't even arrived. I truly appreciate her assistance.MoreShow less</t>
   </si>
   <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded November 9, 2016</t>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded November 9, 2016</t>
   </si>
   <si>
     <t>Responded November 9, 2016</t>
@@ -609,7 +915,52 @@
     <t>Outstanding service! We are having a wedding in November and advised our guests to book reservations at this property (when it was Country Inn).  Then, it switched to Quality Inn and created quite a commotion. I called the property to reserve the room block and it was EFFORTLESS! Natalie was able to address all my concerns, book the room block in seconds, and informed me of the guests that have already reserved. She was extremely flexible with room type and dates and made this experience so easy. That makes a huge difference! I tried to block rooms at another property and they were less than accommodating, so to speak with Natalie and get everything taken care of in a matter of minutes was a huge relief. I called back to make a change and she answered the phone, "Hi Miss [last name]". Such amazing service and my guests haven't even arrived. I truly appreciate her assistance.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r416973580-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r420338821-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>420338821</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>My wife and I stayed on our home back to Seattle. Nice new place and very friendly staff. Breakfast was ok for the price we paid for the room. Rooms are clean and comfortable. Will advise if you are on budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I stayed on our home back to Seattle. Nice new place and very friendly staff. Breakfast was ok for the price we paid for the room. Rooms are clean and comfortable. Will advise if you are on budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r419431360-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419431360</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>No Frills but Good Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here 7 nights as it was two blocks from the Texas Training and Conference Centers, where I attended a professional class.They just swapped over from Country Inn &amp; Suites to now Quality Inn &amp; Suites however, other than sign &amp; livery changes, everything was in place and my reservation was fine.As ever, the staff is what makes any property viable. I found these folks to be very friendly and genuinely concerned with travelers' well being.The hotel is no frills but is executed well. Minimalists will be happy to find a quiet, friendly, and tidy hotel here. It had everything you really need and none of what you don't.The only thing I really missed was a bathrobe (I brought my own as I knew this going in) and real drinking glasses.Front desk, breakfast bar, and housekeeping are on top if their jobs and everything is very clean. Breakfast, though minimal, was well cooked and very adequate to task.Wi Fi was good but the desk and task chair were a bit small/uncomfortable for an extended stay.The A/C and refrigerator were whisper-quiet!Overall I thought this was a good property but in honesty if I had to do it again,  I'd probably choose a hotel with a better desk/work area and a sitting area in the room as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here 7 nights as it was two blocks from the Texas Training and Conference Centers, where I attended a professional class.They just swapped over from Country Inn &amp; Suites to now Quality Inn &amp; Suites however, other than sign &amp; livery changes, everything was in place and my reservation was fine.As ever, the staff is what makes any property viable. I found these folks to be very friendly and genuinely concerned with travelers' well being.The hotel is no frills but is executed well. Minimalists will be happy to find a quiet, friendly, and tidy hotel here. It had everything you really need and none of what you don't.The only thing I really missed was a bathrobe (I brought my own as I knew this going in) and real drinking glasses.Front desk, breakfast bar, and housekeeping are on top if their jobs and everything is very clean. Breakfast, though minimal, was well cooked and very adequate to task.Wi Fi was good but the desk and task chair were a bit small/uncomfortable for an extended stay.The A/C and refrigerator were whisper-quiet!Overall I thought this was a good property but in honesty if I had to do it again,  I'd probably choose a hotel with a better desk/work area and a sitting area in the room as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r416973580-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>416973580</t>
@@ -621,16 +972,10 @@
     <t>MoreShow less</t>
   </si>
   <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded September 20, 2016</t>
-  </si>
-  <si>
-    <t>Responded September 20, 2016</t>
-  </si>
-  <si>
     <t>More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r415515117-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r415515117-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>415515117</t>
@@ -648,7 +993,7 @@
     <t>We stayed the weekend of Sept 3rd and had a great experience. The staff was friendly and the rooms were clean. This hotel was in a central location for our visit. Our family, restaurants, and shopping were very close by. More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r415329332-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r415329332-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>415329332</t>
@@ -657,7 +1002,43 @@
     <t>09/05/2016</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r404388160-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r409372536-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>409372536</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Get 75% off your next stay!</t>
+  </si>
+  <si>
+    <t>However you may have to endure your vehicle being broke into. Be forewarned there is one parking space in the front of the hotel near a brick wall that offers great cover for someone to bust out your truck window. I know it happened to us during our Aug. 7th stay.  It's doubtful we will take the manager up on the 75% off our next visit offer but none the less it was kind of sincere. We had high expectations after a great experience at C I &amp; S up in Iron Mountain, MI.  The staff and accommodations really were great.  We had no valuables in the truck and nothing was taken but we were left with the cleanup and hassle of getting a window replaced.  The ratings below would have all been max excellent but I'm afraid we can't give those ratings because of the break-in experience and lack of compensation for the troubles.MoreShow less</t>
+  </si>
+  <si>
+    <t>However you may have to endure your vehicle being broke into. Be forewarned there is one parking space in the front of the hotel near a brick wall that offers great cover for someone to bust out your truck window. I know it happened to us during our Aug. 7th stay.  It's doubtful we will take the manager up on the 75% off our next visit offer but none the less it was kind of sincere. We had high expectations after a great experience at C I &amp; S up in Iron Mountain, MI.  The staff and accommodations really were great.  We had no valuables in the truck and nothing was taken but we were left with the cleanup and hassle of getting a window replaced.  The ratings below would have all been max excellent but I'm afraid we can't give those ratings because of the break-in experience and lack of compensation for the troubles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r408621266-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408621266</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Terrible customer service</t>
+  </si>
+  <si>
+    <t>Our party of travel professionals arrived at the hotel at 2am to find that they had lost one of our reservations. We had reserved it at our corporate rate but we're not allowed to use it for our second room. The night auditor was not able to accommodate us in any way at all. His comment was that "You could have MADE UP that confirmation email" . Implying that we were there fraudulently.  He would not call corporate to try and provide assistance. I called carson hotels corporate office and the representative was equally unaccommodating and  behaved as if the call was an interruption and annoyance to her. Finally I stopped and paid the highest rate because of the time of day and long distance (over 8 hours) we had traveled.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our party of travel professionals arrived at the hotel at 2am to find that they had lost one of our reservations. We had reserved it at our corporate rate but we're not allowed to use it for our second room. The night auditor was not able to accommodate us in any way at all. His comment was that "You could have MADE UP that confirmation email" . Implying that we were there fraudulently.  He would not call corporate to try and provide assistance. I called carson hotels corporate office and the representative was equally unaccommodating and  behaved as if the call was an interruption and annoyance to her. Finally I stopped and paid the highest rate because of the time of day and long distance (over 8 hours) we had traveled.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r404388160-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>404388160</t>
@@ -666,10 +1047,7 @@
     <t>08/11/2016</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r399626188-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r399626188-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>399626188</t>
@@ -687,7 +1065,7 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded August 5, 2016</t>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded August 5, 2016</t>
   </si>
   <si>
     <t>Responded August 5, 2016</t>
@@ -696,7 +1074,7 @@
     <t>Very clean and proper facilities with a very friendly and welcoming staff. Decent breakfast. Decent value for money too. Supermarket close and many places to eat as well. Further it is quiet, good if you want to have a relaxed stay.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r396476050-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r396476050-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>396476050</t>
@@ -705,13 +1083,31 @@
     <t>07/24/2016</t>
   </si>
   <si>
-    <t>CarlsonRezidor, Online Customer Support at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded August 3, 2016</t>
+    <t>CarlsonRezidor, Online Customer Support at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded August 3, 2016</t>
   </si>
   <si>
     <t>Responded August 3, 2016</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r389423589-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r395685245-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395685245</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r393096057-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393096057</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r389423589-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>389423589</t>
@@ -729,7 +1125,7 @@
     <t>I booked this hotel for the 4th of July weekend and I must say it was quite pleasant. The staff was wonderful, the room was clean, and I liked the fact that there were so many stores and restaurants near by. If I could've changed anything, I would maybe choose a room farther from our next door neighbors. It seems the walls are kind of thin and I could hear their kids screaming, but other than that, a very pleasant stay! Breakfast was good and check in &amp; out was speedy. Overall very nice hotel and excellent staff- recommend this to anyone!More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r389269316-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r389269316-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>389269316</t>
@@ -738,7 +1134,7 @@
     <t>07/04/2016</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r388610038-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r388610038-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>388610038</t>
@@ -759,7 +1155,31 @@
     <t>Hotel was very clean and modern. the staff were extremely helpful and super friendly. Bed was comfortable and pillows were nice. Great Surprise. I was skeptical at first because the price was so inexpensive. But what a treat and great value. Wish all my hotels on this trip would have been like this one.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r386304787-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r386593438-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386593438</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Customer satisfaction</t>
+  </si>
+  <si>
+    <t>The Hotel is the best in townGood customer care, welcoming and ready to hekp youRooms are clean and neat and beddings are pretty much newBreakfast great, to eat all you needThe hotel is in a Good location easy to navigate through the city and major shopping centersMoreShow less</t>
+  </si>
+  <si>
+    <t>The Hotel is the best in townGood customer care, welcoming and ready to hekp youRooms are clean and neat and beddings are pretty much newBreakfast great, to eat all you needThe hotel is in a Good location easy to navigate through the city and major shopping centersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r386859937-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386859937</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r386304787-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>386304787</t>
@@ -768,7 +1188,7 @@
     <t>06/26/2016</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r384969908-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r384969908-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>384969908</t>
@@ -786,7 +1206,7 @@
     <t>I stayed at country inn suites for four days and I love it and very very satisfied with my stay and will be coming back for five more weeks for sure ...the exercise room and pool were awesome ..I surely enjoyed the stayMore</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r384495111-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r384495111-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>384495111</t>
@@ -795,7 +1215,52 @@
     <t>06/20/2016</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r381027583-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r384162349-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384162349</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Great family friendly and clean facility</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel with our 2 girls for 5 nights - at first we were skeptical about the surroundings as described in some other reviews but we didn't have any issues with that. Great friendly and helpful staff.  Hotel was very clean, modern, and the rooms (including bathrooms) were very nice and clean. Pleasant stay. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel with our 2 girls for 5 nights - at first we were skeptical about the surroundings as described in some other reviews but we didn't have any issues with that. Great friendly and helpful staff.  Hotel was very clean, modern, and the rooms (including bathrooms) were very nice and clean. Pleasant stay. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r382537668-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382537668</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>This place was great! The hotel is brand new and the decor is very contemporary. Comfortable quiet stay and good complementary hot and cold breakfast service in the morning. The front desk attendants were very friendly and helpful with area attractions.  I would recommend this place to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2016</t>
+  </si>
+  <si>
+    <t>This place was great! The hotel is brand new and the decor is very contemporary. Comfortable quiet stay and good complementary hot and cold breakfast service in the morning. The front desk attendants were very friendly and helpful with area attractions.  I would recommend this place to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r381027583-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>381027583</t>
@@ -810,16 +1275,10 @@
     <t>The hotel was spotless!  Room was fresh and new. TV remote needed batteries but I'll give up the TV for a room this clean any day.  Staff was nice and courteous.  Breakfast area was clean as well and the food was very fresh.MoreShow less</t>
   </si>
   <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded June 15, 2016</t>
-  </si>
-  <si>
-    <t>Responded June 15, 2016</t>
-  </si>
-  <si>
     <t>The hotel was spotless!  Room was fresh and new. TV remote needed batteries but I'll give up the TV for a room this clean any day.  Staff was nice and courteous.  Breakfast area was clean as well and the food was very fresh.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r378214804-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r378214804-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>378214804</t>
@@ -834,10 +1293,7 @@
     <t>Perfect location for our vacation to visit family. New hotel.Friendly staff.Was on 4th floor so nooce was not a problem. Fairly clean -could use to clean cobwebs from ceilings in halls. Including 3 pictures with this post of what we noticed. 1- from parking lot there is a window on 3rd that if installed properly shouldn't have moisture in it. 2- above elevator it looks unfinished/cheaply done. 3- no person should look down the crack in elevator as you can see down and it was dirty down there, even seen a pack of Marb light cigarettes. Despite these things minor (in our opinion) things, we will return to this hotel due to close proximity to shopping, food and family. MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded June 2, 2016</t>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded June 2, 2016</t>
   </si>
   <si>
     <t>Responded June 2, 2016</t>
@@ -846,7 +1302,7 @@
     <t>Perfect location for our vacation to visit family. New hotel.Friendly staff.Was on 4th floor so nooce was not a problem. Fairly clean -could use to clean cobwebs from ceilings in halls. Including 3 pictures with this post of what we noticed. 1- from parking lot there is a window on 3rd that if installed properly shouldn't have moisture in it. 2- above elevator it looks unfinished/cheaply done. 3- no person should look down the crack in elevator as you can see down and it was dirty down there, even seen a pack of Marb light cigarettes. Despite these things minor (in our opinion) things, we will return to this hotel due to close proximity to shopping, food and family. More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r373553182-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r373553182-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>373553182</t>
@@ -861,7 +1317,7 @@
     <t>We stayed here the first week of May and the hotel was in pristine condition. Every room was perfectly clean. The staff was very nice and helpful. Our room was great and the bed was heaven!! A nice yummy breakfast the next morning was the perfect ending to our stay. We will definitely visit again if we are back in town.-MoreShow less</t>
   </si>
   <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded May 18, 2016</t>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded May 18, 2016</t>
   </si>
   <si>
     <t>Responded May 18, 2016</t>
@@ -870,7 +1326,49 @@
     <t>We stayed here the first week of May and the hotel was in pristine condition. Every room was perfectly clean. The staff was very nice and helpful. Our room was great and the bed was heaven!! A nice yummy breakfast the next morning was the perfect ending to our stay. We will definitely visit again if we are back in town.-More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r371072053-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r372953071-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>372953071</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>Brand new - clean, fresh but a few things to work on</t>
+  </si>
+  <si>
+    <t>Everything at this hotel was extremely clean.  Staff was super nice, although some were still in training and so things took a little longer (purchases, check in, etc).  However, hard to mind that when everyone was so nice.  Room and lobby appear brand new.  Sheets and bed were comfy, and I felt adequately spacious for this class of hotel.  The breakfast left something to be desired for me.  It was your basic continental - eggs, bacon, sausage, yogurt, cereal and waffles.  There did not appear to be a breakfast attendant at all times, and the items were running low with no sign of replenishment.  Could be because I attended about 30 minutes before it ended, but would expect more attention to it given there were several parties eating.  The parking lot felt strange to me - if you park out back, I didn't see a way in, and there is pretty limited parking up front and on the site.  I'm not sure what you would do if the hotel is full. As far as the area, this is really convenient to the highway, and the neighborhood felt safe enough.   The next door hotel is a bit more aging.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Everything at this hotel was extremely clean.  Staff was super nice, although some were still in training and so things took a little longer (purchases, check in, etc).  However, hard to mind that when everyone was so nice.  Room and lobby appear brand new.  Sheets and bed were comfy, and I felt adequately spacious for this class of hotel.  The breakfast left something to be desired for me.  It was your basic continental - eggs, bacon, sausage, yogurt, cereal and waffles.  There did not appear to be a breakfast attendant at all times, and the items were running low with no sign of replenishment.  Could be because I attended about 30 minutes before it ended, but would expect more attention to it given there were several parties eating.  The parking lot felt strange to me - if you park out back, I didn't see a way in, and there is pretty limited parking up front and on the site.  I'm not sure what you would do if the hotel is full. As far as the area, this is really convenient to the highway, and the neighborhood felt safe enough.   The next door hotel is a bit more aging.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r371668597-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371668597</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r371072053-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>371072053</t>
@@ -879,13 +1377,7 @@
     <t>05/07/2016</t>
   </si>
   <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded May 10, 2016</t>
-  </si>
-  <si>
-    <t>Responded May 10, 2016</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r367670497-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r367670497-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>367670497</t>
@@ -894,16 +1386,13 @@
     <t>04/25/2016</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded April 27, 2016</t>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded April 27, 2016</t>
   </si>
   <si>
     <t>Responded April 27, 2016</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r363237786-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r363237786-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>363237786</t>
@@ -912,13 +1401,49 @@
     <t>04/10/2016</t>
   </si>
   <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded April 16, 2016</t>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded April 16, 2016</t>
   </si>
   <si>
     <t>Responded April 16, 2016</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r356081647-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r357110589-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357110589</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Really NIce.</t>
+  </si>
+  <si>
+    <t>This hotel is really nice.  The staff is very friendly, and the service was excellent.  They even left a note in my room thanking me for choosing to stay with them.  The whole place was very clean and tidy.  We stayed four nights and had no problems.  It was a joy to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is really nice.  The staff is very friendly, and the service was excellent.  They even left a note in my room thanking me for choosing to stay with them.  The whole place was very clean and tidy.  We stayed four nights and had no problems.  It was a joy to stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r356933325-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356933325</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r356081647-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>356081647</t>
@@ -933,10 +1458,7 @@
     <t>I was amazed by this property.  The entire staff was friendly and willing to help.  I was allowed to change from my double queen room to a single king at the last minute.  Viven at the front desk was amazing and had no problem in assisting.  The room itself was in immaculate condition and could not ask for anything more.  I will stay here every time I am in Houston again.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded March 18, 2016</t>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded March 18, 2016</t>
   </si>
   <si>
     <t>Responded March 18, 2016</t>
@@ -945,7 +1467,7 @@
     <t>I was amazed by this property.  The entire staff was friendly and willing to help.  I was allowed to change from my double queen room to a single king at the last minute.  Viven at the front desk was amazing and had no problem in assisting.  The room itself was in immaculate condition and could not ask for anything more.  I will stay here every time I am in Houston again.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r355657315-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r355657315-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>355657315</t>
@@ -963,7 +1485,7 @@
     <t>Modern, clean. Not in the best part of town but a good deal for the buck.The service was good, all employees were extremely nice and worried of providing a good service at all  times. Other services : wifi, cable, breakfast all great.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r355267601-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r355267601-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>355267601</t>
@@ -981,7 +1503,37 @@
     <t>The overall hotel is very nice - it still has "the new car smell" to it.  Upon arrival, we received a very warm and sincere welcome from Ms. Vivien at the front desk.  Check in was smooth and trouble free.  Our room was very nice.  Loved the overall setup and look of it.  Our bed was extremely comfortable - made you not want to get out of it in the morning!  Waking up to free breakfast was nice.  Good coffee - very important to me.  The close proximity to Sam Houston Pkwy was convenient to what we needed, so 5 stars for that.  Plenty of good food nearby.  I didn't give a full 5 only because of the area.  There was a nightclub across the street and plenty of questionable characters wandering the neighborhood to let me know I couldn't walk anywhere.  I was very glad the property was well lit, so I wasn't as worried about my vehicle as I would have been.  No problems however.  Excellent facility - excellent staff with superior customer service.  Just needs to be in a better area.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r354000947-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r355468387-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355468387</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r354173196-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354173196</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Brand new and delightful !</t>
+  </si>
+  <si>
+    <t>Especially clean and new.  Very friendly staff throughout.  Don't hesitate to stay here if you are in Houston.  Rooms are very spacious.  Showers are a little odd in that there is no full partitioned door, rather just a 1/2 pane of glass thus sort of an "open" walk in shower.  Makes you wonder.....MoreShow less</t>
+  </si>
+  <si>
+    <t>Adam P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded March 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2016</t>
+  </si>
+  <si>
+    <t>Especially clean and new.  Very friendly staff throughout.  Don't hesitate to stay here if you are in Houston.  Rooms are very spacious.  Showers are a little odd in that there is no full partitioned door, rather just a 1/2 pane of glass thus sort of an "open" walk in shower.  Makes you wonder.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r354000947-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>354000947</t>
@@ -990,13 +1542,7 @@
     <t>03/08/2016</t>
   </si>
   <si>
-    <t>Adam P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded March 12, 2016</t>
-  </si>
-  <si>
-    <t>Responded March 12, 2016</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r350688428-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r350688428-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>350688428</t>
@@ -1017,7 +1563,7 @@
     <t>Before I booked the room I called and asked if there was a deposit on their rooms. In which the person over the phone said no. As I was checking in they asked for a card for the deposit. I figured that since it was a newer hotel they would charge a deposit but since I was misinformed I was blindsided. Personally, I thought the room was great but I didn't feel comfortable when I laid down. The walls were paper thin making it difficult to sleep as other consumers went down for breakfast.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r349227940-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r349227940-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>349227940</t>
@@ -1035,7 +1581,7 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Ashik P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded February 24, 2016</t>
+    <t>Ashik P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded February 24, 2016</t>
   </si>
   <si>
     <t>Responded February 24, 2016</t>
@@ -1044,7 +1590,22 @@
     <t>The room was quiet and clean.  The staff was very helpful and friendly.  The breakfast was sufficient and tasty.  Location is very convenient to the Houston Westchase area.  Plenty of restaurants and shops nearby.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r347794154-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r349325899-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349325899</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r348748591-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348748591</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r347794154-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>347794154</t>
@@ -1053,7 +1614,7 @@
     <t>02/13/2016</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r341737979-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r341737979-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>341737979</t>
@@ -1071,7 +1632,7 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Ashik P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded January 24, 2016</t>
+    <t>Ashik P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded January 24, 2016</t>
   </si>
   <si>
     <t>Responded January 24, 2016</t>
@@ -1080,7 +1641,7 @@
     <t>Everything is very nice here with an excellent free breakfast.The staff was very helpful with WiFi access issues.My only notation is that the room had no clock. My dining companion opined that smart phones maybe make clocks obsolete but not for me. I carry a small one in my bag so I survived but am just wondering.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r343235435-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r343235435-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>343235435</t>
@@ -1089,13 +1650,28 @@
     <t>01/20/2016</t>
   </si>
   <si>
-    <t>Ashik P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded February 1, 2016</t>
+    <t>Ashik P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded February 1, 2016</t>
   </si>
   <si>
     <t>Responded February 1, 2016</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r341060784-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r343467079-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343467079</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r343467137-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343467137</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r341060784-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>341060784</t>
@@ -1110,7 +1686,7 @@
     <t>Such a great hotel. Friendly staff as soon as you walk through the door, beautiful interior throughout the hotel, and clean, modern styled hotel rooms. Great location to stay at no matter what you may have planned to do in Houston. Great complimentary breakfast. Even had security walking around the hotel, which made us feel extra protected. Excellent experience and will be back again! MoreShow less</t>
   </si>
   <si>
-    <t>Ashik P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded January 19, 2016</t>
+    <t>Ashik P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded January 19, 2016</t>
   </si>
   <si>
     <t>Responded January 19, 2016</t>
@@ -1119,7 +1695,7 @@
     <t>Such a great hotel. Friendly staff as soon as you walk through the door, beautiful interior throughout the hotel, and clean, modern styled hotel rooms. Great location to stay at no matter what you may have planned to do in Houston. Great complimentary breakfast. Even had security walking around the hotel, which made us feel extra protected. Excellent experience and will be back again! More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r340827740-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r340827740-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>340827740</t>
@@ -1137,7 +1713,7 @@
     <t>My girlfriend and I stumbled upon this location and it has been our new regular spot to get away. They greet you everytime. The hotel is filled with new technology from the elevator to the style of showers in the rooms. Most recommended location in Houston hands down.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r337555965-Quality_Inn_Suites_Westchase_Westheimer-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8494644-r337555965-Best_Western_Plus_Westheimer_Westchase_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>337555965</t>
@@ -1152,7 +1728,7 @@
     <t>Great new hotel. The staff was great. The breakfast was complimentary and delicious. I like the new modern touches and it was located within an easy distance to the major highways. Room was very clean and spacious. I'll definitely be back.MoreShow less</t>
   </si>
   <si>
-    <t>Ashik P, Manager at Quality Inn &amp; Suites Westchase - Westheimer, responded to this reviewResponded January 11, 2016</t>
+    <t>Ashik P, Manager at Best Western Plus Westheimer-Westchase Inn &amp; Suites, responded to this reviewResponded January 11, 2016</t>
   </si>
   <si>
     <t>Responded January 11, 2016</t>
@@ -1702,11 +2278,15 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1750,25 +2330,25 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1776,7 +2356,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1792,7 +2372,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1801,45 +2381,35 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1855,7 +2425,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1864,39 +2434,45 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1933,22 +2509,22 @@
         <v>76</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
         <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>5</v>
@@ -1975,58 +2551,48 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
         <v>78</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>85</v>
-      </c>
-      <c r="X7" t="s">
-        <v>86</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -2042,52 +2608,54 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
         <v>88</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" t="s">
-        <v>92</v>
-      </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>85</v>
-      </c>
-      <c r="X8" t="s">
-        <v>86</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -2103,34 +2671,34 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>95</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>93</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2147,14 +2715,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>85</v>
-      </c>
-      <c r="X9" t="s">
-        <v>86</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -2170,7 +2734,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2179,25 +2743,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2208,14 +2772,10 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>85</v>
-      </c>
-      <c r="X10" t="s">
-        <v>86</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -2231,58 +2791,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>107</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>93</v>
-      </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>85</v>
-      </c>
-      <c r="X11" t="s">
-        <v>86</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -2298,31 +2852,31 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>113</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" t="s">
-        <v>116</v>
-      </c>
-      <c r="L12" t="s">
-        <v>117</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>93</v>
       </c>
       <c r="O12" t="s">
         <v>53</v>
@@ -2330,24 +2884,16 @@
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>85</v>
-      </c>
-      <c r="X12" t="s">
-        <v>86</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -2363,7 +2909,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2372,27 +2918,29 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
         <v>53</v>
       </c>
-      <c r="P13" t="s"/>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="n">
         <v>4</v>
@@ -2405,14 +2953,10 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>85</v>
-      </c>
-      <c r="X13" t="s">
-        <v>86</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -2428,58 +2972,58 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>125</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>126</v>
-      </c>
-      <c r="J14" t="s">
-        <v>127</v>
-      </c>
-      <c r="K14" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>130</v>
-      </c>
       <c r="O14" t="s">
-        <v>131</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
         <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="X14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -2495,7 +3039,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2504,33 +3048,33 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
@@ -2540,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="X15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -2562,7 +3106,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2571,25 +3115,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2605,13 +3149,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="X16" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
@@ -2627,7 +3171,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2636,49 +3180,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>131</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="X17" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -2694,7 +3232,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2703,43 +3241,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="O18" t="s">
-        <v>165</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="X18" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
@@ -2755,7 +3299,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2764,25 +3308,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2794,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="X19" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="Y19" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
@@ -2816,7 +3360,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2825,26 +3369,22 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
-      <c r="N20" t="s">
-        <v>140</v>
-      </c>
-      <c r="O20" t="s">
-        <v>131</v>
-      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
@@ -2855,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="X20" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
@@ -2877,7 +3417,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2886,33 +3426,31 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
         <v>5</v>
       </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -2922,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="X21" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="Y21" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22">
@@ -2944,7 +3482,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2953,43 +3491,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="X22" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="Y22" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
@@ -3005,7 +3549,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3014,51 +3558,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>199</v>
-      </c>
-      <c r="K23" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
       <c r="L23" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
         <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="X23" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="Y23" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -3074,7 +3614,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3083,38 +3623,32 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="J24" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="K24" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3123,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="X24" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="Y24" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
@@ -3145,7 +3679,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3154,36 +3688,32 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J25" t="s">
-        <v>212</v>
-      </c>
-      <c r="K25" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
       <c r="L25" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
         <v>5</v>
       </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -3192,13 +3722,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="X25" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="Y25" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26">
@@ -3214,7 +3744,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3223,36 +3753,32 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
-      </c>
-      <c r="K26" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="K26" t="s">
+        <v>200</v>
+      </c>
       <c r="L26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
       </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
         <v>5</v>
       </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -3261,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="X26" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y26" t="s">
         <v>202</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="27">
@@ -3283,7 +3809,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3292,43 +3818,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="J27" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="O27" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="X27" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="Y27" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
@@ -3344,7 +3876,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3353,51 +3885,49 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
-      </c>
-      <c r="K28" t="s"/>
+        <v>214</v>
+      </c>
+      <c r="K28" t="s">
+        <v>215</v>
+      </c>
       <c r="L28" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" t="n">
         <v>4</v>
       </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="X28" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="Y28" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
@@ -3413,7 +3943,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3422,33 +3952,31 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3458,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="X29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Y29" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30">
@@ -3480,7 +4008,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3489,51 +4017,47 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
-      </c>
-      <c r="K30" t="s"/>
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
       <c r="L30" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O30" t="s">
-        <v>165</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="X30" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Y30" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
@@ -3549,47 +4073,41 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
         <v>240</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
         <v>241</v>
       </c>
-      <c r="J31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K31" t="s">
-        <v>243</v>
-      </c>
-      <c r="L31" t="s">
-        <v>244</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>245</v>
-      </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
         <v>4</v>
       </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3598,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="X31" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Y31" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32">
@@ -3620,45 +4138,43 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" t="s">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s">
         <v>247</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
         <v>248</v>
       </c>
-      <c r="J32" t="s">
-        <v>249</v>
-      </c>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s">
-        <v>200</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>245</v>
-      </c>
       <c r="O32" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -3667,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="X32" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Y32" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33">
@@ -3710,13 +4226,13 @@
         <v>254</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O33" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3728,13 +4244,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="X33" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Y33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34">
@@ -3750,7 +4266,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3759,51 +4275,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
-      </c>
-      <c r="K34" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="K34" t="s">
+        <v>260</v>
+      </c>
       <c r="L34" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="X34" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Y34" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35">
@@ -3819,7 +4327,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3828,38 +4336,34 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J35" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K35" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -3868,13 +4372,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="X35" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="Y35" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36">
@@ -3890,7 +4394,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3899,25 +4403,25 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J36" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K36" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L36" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3929,13 +4433,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="X36" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y36" t="s">
         <v>274</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="37">
@@ -3951,34 +4455,34 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>275</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
         <v>276</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>277</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>278</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>279</v>
       </c>
-      <c r="L37" t="s">
-        <v>280</v>
-      </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="O37" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3990,13 +4494,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
+        <v>280</v>
+      </c>
+      <c r="X37" t="s">
         <v>281</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>282</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="38">
@@ -4012,60 +4516,58 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
         <v>284</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>285</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>286</v>
       </c>
-      <c r="K38" t="s"/>
       <c r="L38" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="O38" t="s">
         <v>53</v>
       </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y38" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39">
@@ -4081,7 +4583,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4090,51 +4592,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J39" t="s">
-        <v>291</v>
-      </c>
-      <c r="K39" t="s"/>
+        <v>293</v>
+      </c>
+      <c r="K39" t="s">
+        <v>294</v>
+      </c>
       <c r="L39" t="s">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>292</v>
+        <v>217</v>
       </c>
       <c r="O39" t="s">
-        <v>131</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="X39" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Y39" t="s">
-        <v>203</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40">
@@ -4150,7 +4644,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4159,36 +4653,34 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J40" t="s">
-        <v>297</v>
-      </c>
-      <c r="K40" t="s"/>
+        <v>301</v>
+      </c>
+      <c r="K40" t="s">
+        <v>302</v>
+      </c>
       <c r="L40" t="s">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
         <v>5</v>
       </c>
       <c r="R40" t="n">
         <v>5</v>
       </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4197,13 +4689,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="X40" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Y40" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41">
@@ -4219,7 +4711,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4228,47 +4720,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="J41" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="K41" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>305</v>
+        <v>113</v>
       </c>
       <c r="O41" t="s">
-        <v>84</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
+        <v>305</v>
+      </c>
+      <c r="X41" t="s">
         <v>306</v>
       </c>
-      <c r="X41" t="s">
-        <v>307</v>
-      </c>
       <c r="Y41" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42">
@@ -4284,7 +4772,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4293,32 +4781,36 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="J42" t="s">
-        <v>311</v>
-      </c>
-      <c r="K42" t="s">
-        <v>312</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>305</v>
+        <v>113</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
       <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4327,13 +4819,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
+        <v>305</v>
+      </c>
+      <c r="X42" t="s">
         <v>306</v>
       </c>
-      <c r="X42" t="s">
-        <v>307</v>
-      </c>
       <c r="Y42" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43">
@@ -4349,7 +4841,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4358,31 +4850,35 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="J43" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K43" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L43" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>305</v>
+        <v>113</v>
       </c>
       <c r="O43" t="s">
-        <v>84</v>
-      </c>
-      <c r="P43" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
       <c r="Q43" t="n">
         <v>5</v>
       </c>
-      <c r="R43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
       <c r="S43" t="n">
         <v>5</v>
       </c>
@@ -4394,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
+        <v>305</v>
+      </c>
+      <c r="X43" t="s">
         <v>306</v>
       </c>
-      <c r="X43" t="s">
-        <v>307</v>
-      </c>
       <c r="Y43" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44">
@@ -4416,7 +4912,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4425,23 +4921,23 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J44" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>305</v>
+        <v>113</v>
       </c>
       <c r="O44" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4463,13 +4959,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="X44" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="Y44" t="s">
-        <v>203</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45">
@@ -4485,7 +4981,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4494,47 +4990,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J45" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K45" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="O45" t="s">
-        <v>131</v>
-      </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
       <c r="R45" t="s"/>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="X45" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="Y45" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46">
@@ -4550,7 +5048,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4559,49 +5057,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P46" t="s"/>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
+        <v>305</v>
+      </c>
+      <c r="X46" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y46" t="s">
         <v>339</v>
-      </c>
-      <c r="X46" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="47">
@@ -4617,44 +5109,44 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
+        <v>340</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>341</v>
+      </c>
+      <c r="J47" t="s">
         <v>342</v>
-      </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" t="s">
-        <v>343</v>
-      </c>
-      <c r="J47" t="s">
-        <v>344</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="O47" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
@@ -4664,13 +5156,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="X47" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="Y47" t="s">
-        <v>203</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48">
@@ -4686,58 +5178,52 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>343</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>344</v>
+      </c>
+      <c r="J48" t="s">
         <v>345</v>
       </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>346</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>347</v>
       </c>
-      <c r="K48" t="s">
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
         <v>348</v>
       </c>
-      <c r="L48" t="s">
-        <v>349</v>
-      </c>
-      <c r="M48" t="n">
-        <v>4</v>
-      </c>
-      <c r="N48" t="s">
-        <v>350</v>
-      </c>
       <c r="O48" t="s">
-        <v>131</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
+      <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
+        <v>349</v>
+      </c>
+      <c r="X48" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y48" t="s">
         <v>351</v>
-      </c>
-      <c r="X48" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="49">
@@ -4753,60 +5239,60 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>352</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>353</v>
+      </c>
+      <c r="J49" t="s">
         <v>354</v>
-      </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
-        <v>355</v>
-      </c>
-      <c r="J49" t="s">
-        <v>356</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>348</v>
+      </c>
+      <c r="O49" t="s">
+        <v>78</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
         <v>4</v>
-      </c>
-      <c r="N49" t="s">
-        <v>350</v>
-      </c>
-      <c r="O49" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X49" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Y49" t="s">
-        <v>203</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50">
@@ -4822,52 +5308,60 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>357</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>358</v>
+      </c>
+      <c r="J50" t="s">
         <v>359</v>
       </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" t="s">
-        <v>360</v>
-      </c>
-      <c r="J50" t="s">
-        <v>361</v>
-      </c>
-      <c r="K50" t="s">
-        <v>362</v>
-      </c>
+      <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
+        <v>348</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>349</v>
+      </c>
+      <c r="X50" t="s">
         <v>350</v>
       </c>
-      <c r="O50" t="s">
-        <v>84</v>
-      </c>
-      <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
-      <c r="S50" t="s"/>
-      <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" t="s">
-        <v>364</v>
-      </c>
-      <c r="X50" t="s">
-        <v>365</v>
-      </c>
       <c r="Y50" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51">
@@ -4883,7 +5377,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4892,43 +5386,51 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="J51" t="s">
-        <v>369</v>
-      </c>
-      <c r="K51" t="s">
-        <v>370</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="K51" t="s"/>
       <c r="L51" t="s">
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
+        <v>348</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>349</v>
+      </c>
+      <c r="X51" t="s">
         <v>350</v>
       </c>
-      <c r="O51" t="s">
-        <v>84</v>
-      </c>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
-      <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
-      <c r="V51" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" t="s">
-        <v>364</v>
-      </c>
-      <c r="X51" t="s">
-        <v>365</v>
-      </c>
       <c r="Y51" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52">
@@ -4944,7 +5446,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -4953,32 +5455,32 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="J52" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K52" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="O52" t="s">
         <v>53</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
@@ -4989,13 +5491,2492 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
+        <v>349</v>
+      </c>
+      <c r="X52" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>369</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>370</v>
+      </c>
+      <c r="J53" t="s">
+        <v>371</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>317</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>348</v>
+      </c>
+      <c r="O53" t="s">
+        <v>255</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>349</v>
+      </c>
+      <c r="X53" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>372</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>373</v>
+      </c>
+      <c r="J54" t="s">
+        <v>374</v>
+      </c>
+      <c r="K54" t="s">
+        <v>375</v>
+      </c>
+      <c r="L54" t="s">
+        <v>376</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>377</v>
+      </c>
+      <c r="O54" t="s">
+        <v>78</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>349</v>
+      </c>
+      <c r="X54" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y54" t="s">
         <v>378</v>
       </c>
-      <c r="X52" t="s">
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
         <v>379</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
         <v>380</v>
+      </c>
+      <c r="J55" t="s">
+        <v>381</v>
+      </c>
+      <c r="K55" t="s">
+        <v>382</v>
+      </c>
+      <c r="L55" t="s">
+        <v>383</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>377</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>349</v>
+      </c>
+      <c r="X55" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>385</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>386</v>
+      </c>
+      <c r="J56" t="s">
+        <v>381</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s">
+        <v>317</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>377</v>
+      </c>
+      <c r="O56" t="s">
+        <v>208</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>349</v>
+      </c>
+      <c r="X56" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>387</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>388</v>
+      </c>
+      <c r="J57" t="s">
+        <v>389</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s">
+        <v>317</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>377</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>349</v>
+      </c>
+      <c r="X57" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>390</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>391</v>
+      </c>
+      <c r="J58" t="s">
+        <v>392</v>
+      </c>
+      <c r="K58" t="s">
+        <v>393</v>
+      </c>
+      <c r="L58" t="s">
+        <v>394</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>377</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>349</v>
+      </c>
+      <c r="X58" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>396</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>397</v>
+      </c>
+      <c r="J59" t="s">
+        <v>398</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s">
+        <v>317</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>377</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>349</v>
+      </c>
+      <c r="X59" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>399</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>400</v>
+      </c>
+      <c r="J60" t="s">
+        <v>401</v>
+      </c>
+      <c r="K60" t="s">
+        <v>402</v>
+      </c>
+      <c r="L60" t="s">
+        <v>403</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>377</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>349</v>
+      </c>
+      <c r="X60" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>405</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>406</v>
+      </c>
+      <c r="J61" t="s">
+        <v>407</v>
+      </c>
+      <c r="K61" t="s">
+        <v>408</v>
+      </c>
+      <c r="L61" t="s">
+        <v>409</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>410</v>
+      </c>
+      <c r="O61" t="s">
+        <v>208</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>411</v>
+      </c>
+      <c r="X61" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>414</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>415</v>
+      </c>
+      <c r="J62" t="s">
+        <v>416</v>
+      </c>
+      <c r="K62" t="s">
+        <v>417</v>
+      </c>
+      <c r="L62" t="s">
+        <v>418</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>377</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>411</v>
+      </c>
+      <c r="X62" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>420</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>421</v>
+      </c>
+      <c r="J63" t="s">
+        <v>422</v>
+      </c>
+      <c r="K63" t="s">
+        <v>423</v>
+      </c>
+      <c r="L63" t="s">
+        <v>424</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>410</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>425</v>
+      </c>
+      <c r="X63" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>428</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>429</v>
+      </c>
+      <c r="J64" t="s">
+        <v>430</v>
+      </c>
+      <c r="K64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L64" t="s">
+        <v>432</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>410</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>433</v>
+      </c>
+      <c r="X64" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>436</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>437</v>
+      </c>
+      <c r="J65" t="s">
+        <v>438</v>
+      </c>
+      <c r="K65" t="s">
+        <v>439</v>
+      </c>
+      <c r="L65" t="s">
+        <v>440</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>441</v>
+      </c>
+      <c r="O65" t="s">
+        <v>78</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>442</v>
+      </c>
+      <c r="X65" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>445</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>446</v>
+      </c>
+      <c r="J66" t="s">
+        <v>447</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s">
+        <v>317</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>410</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>448</v>
+      </c>
+      <c r="X66" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>450</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>451</v>
+      </c>
+      <c r="J67" t="s">
+        <v>452</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s">
+        <v>317</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>410</v>
+      </c>
+      <c r="O67" t="s">
+        <v>78</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>448</v>
+      </c>
+      <c r="X67" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>453</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>454</v>
+      </c>
+      <c r="J68" t="s">
+        <v>455</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s">
+        <v>317</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>441</v>
+      </c>
+      <c r="O68" t="s">
+        <v>208</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>456</v>
+      </c>
+      <c r="X68" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>458</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>459</v>
+      </c>
+      <c r="J69" t="s">
+        <v>460</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s">
+        <v>317</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>441</v>
+      </c>
+      <c r="O69" t="s">
+        <v>78</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>461</v>
+      </c>
+      <c r="X69" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>463</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>464</v>
+      </c>
+      <c r="J70" t="s">
+        <v>465</v>
+      </c>
+      <c r="K70" t="s">
+        <v>466</v>
+      </c>
+      <c r="L70" t="s">
+        <v>467</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>468</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>469</v>
+      </c>
+      <c r="X70" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>472</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>473</v>
+      </c>
+      <c r="J71" t="s">
+        <v>474</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s">
+        <v>317</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>468</v>
+      </c>
+      <c r="O71" t="s">
+        <v>78</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>469</v>
+      </c>
+      <c r="X71" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>475</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>476</v>
+      </c>
+      <c r="J72" t="s">
+        <v>477</v>
+      </c>
+      <c r="K72" t="s">
+        <v>478</v>
+      </c>
+      <c r="L72" t="s">
+        <v>479</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>468</v>
+      </c>
+      <c r="O72" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>480</v>
+      </c>
+      <c r="X72" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>483</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>484</v>
+      </c>
+      <c r="J73" t="s">
+        <v>485</v>
+      </c>
+      <c r="K73" t="s">
+        <v>486</v>
+      </c>
+      <c r="L73" t="s">
+        <v>487</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>468</v>
+      </c>
+      <c r="O73" t="s">
+        <v>78</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>480</v>
+      </c>
+      <c r="X73" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>489</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>490</v>
+      </c>
+      <c r="J74" t="s">
+        <v>491</v>
+      </c>
+      <c r="K74" t="s">
+        <v>492</v>
+      </c>
+      <c r="L74" t="s">
+        <v>493</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>468</v>
+      </c>
+      <c r="O74" t="s">
+        <v>59</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>480</v>
+      </c>
+      <c r="X74" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>495</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>496</v>
+      </c>
+      <c r="J75" t="s">
+        <v>491</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s">
+        <v>317</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>468</v>
+      </c>
+      <c r="O75" t="s">
+        <v>255</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>480</v>
+      </c>
+      <c r="X75" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>497</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>498</v>
+      </c>
+      <c r="J76" t="s">
+        <v>499</v>
+      </c>
+      <c r="K76" t="s">
+        <v>500</v>
+      </c>
+      <c r="L76" t="s">
+        <v>501</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>468</v>
+      </c>
+      <c r="O76" t="s">
+        <v>78</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>502</v>
+      </c>
+      <c r="X76" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>505</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>506</v>
+      </c>
+      <c r="J77" t="s">
+        <v>507</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s">
+        <v>317</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>468</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>502</v>
+      </c>
+      <c r="X77" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>508</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>509</v>
+      </c>
+      <c r="J78" t="s">
+        <v>510</v>
+      </c>
+      <c r="K78" t="s">
+        <v>511</v>
+      </c>
+      <c r="L78" t="s">
+        <v>512</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>513</v>
+      </c>
+      <c r="O78" t="s">
+        <v>208</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>502</v>
+      </c>
+      <c r="X78" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>515</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>516</v>
+      </c>
+      <c r="J79" t="s">
+        <v>517</v>
+      </c>
+      <c r="K79" t="s">
+        <v>518</v>
+      </c>
+      <c r="L79" t="s">
+        <v>519</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>520</v>
+      </c>
+      <c r="O79" t="s">
+        <v>78</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>521</v>
+      </c>
+      <c r="X79" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>524</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>525</v>
+      </c>
+      <c r="J80" t="s">
+        <v>517</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s">
+        <v>317</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>520</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>521</v>
+      </c>
+      <c r="X80" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>526</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>527</v>
+      </c>
+      <c r="J81" t="s">
+        <v>528</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s">
+        <v>317</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>520</v>
+      </c>
+      <c r="O81" t="s">
+        <v>78</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>521</v>
+      </c>
+      <c r="X81" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>529</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>530</v>
+      </c>
+      <c r="J82" t="s">
+        <v>531</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s">
+        <v>317</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>520</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>521</v>
+      </c>
+      <c r="X82" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>532</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>533</v>
+      </c>
+      <c r="J83" t="s">
+        <v>534</v>
+      </c>
+      <c r="K83" t="s">
+        <v>535</v>
+      </c>
+      <c r="L83" t="s">
+        <v>536</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>537</v>
+      </c>
+      <c r="O83" t="s">
+        <v>208</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>538</v>
+      </c>
+      <c r="X83" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>541</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>542</v>
+      </c>
+      <c r="J84" t="s">
+        <v>543</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s">
+        <v>317</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>537</v>
+      </c>
+      <c r="O84" t="s">
+        <v>78</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>544</v>
+      </c>
+      <c r="X84" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>546</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>547</v>
+      </c>
+      <c r="J85" t="s">
+        <v>543</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s">
+        <v>317</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>537</v>
+      </c>
+      <c r="O85" t="s">
+        <v>78</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>544</v>
+      </c>
+      <c r="X85" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>548</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>549</v>
+      </c>
+      <c r="J86" t="s">
+        <v>550</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s">
+        <v>317</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>537</v>
+      </c>
+      <c r="O86" t="s">
+        <v>78</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>544</v>
+      </c>
+      <c r="X86" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>551</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>552</v>
+      </c>
+      <c r="J87" t="s">
+        <v>553</v>
+      </c>
+      <c r="K87" t="s">
+        <v>554</v>
+      </c>
+      <c r="L87" t="s">
+        <v>555</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>537</v>
+      </c>
+      <c r="O87" t="s">
+        <v>59</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>556</v>
+      </c>
+      <c r="X87" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>559</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>560</v>
+      </c>
+      <c r="J88" t="s">
+        <v>561</v>
+      </c>
+      <c r="K88" t="s">
+        <v>562</v>
+      </c>
+      <c r="L88" t="s">
+        <v>563</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>537</v>
+      </c>
+      <c r="O88" t="s">
+        <v>59</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>556</v>
+      </c>
+      <c r="X88" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>64430</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>565</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>566</v>
+      </c>
+      <c r="J89" t="s">
+        <v>567</v>
+      </c>
+      <c r="K89" t="s">
+        <v>568</v>
+      </c>
+      <c r="L89" t="s">
+        <v>569</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>513</v>
+      </c>
+      <c r="O89" t="s">
+        <v>78</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>570</v>
+      </c>
+      <c r="X89" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
